--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/因卓教育权限配置/因卓教育用户数据权限说明.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/因卓教育权限配置/因卓教育用户数据权限说明.xlsx
@@ -447,11 +447,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,21 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,17 +787,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="1"/>
     <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.296875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.69921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -805,26 +805,26 @@
     <row r="3" spans="2:13">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="5" t="s">
@@ -833,92 +833,92 @@
       <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="2:13" ht="27.6">
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="5" t="s">
@@ -927,115 +927,115 @@
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="5" t="s">
@@ -1044,269 +1044,269 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="12"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="12"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="12"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="12"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="12"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="12"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="13"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
